--- a/Partial Least Squares Regression/PLSR_metrics_SNV.xlsx
+++ b/Partial Least Squares Regression/PLSR_metrics_SNV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6817576442468937</v>
+        <v>0.7521266940440442</v>
       </c>
       <c r="C2" t="n">
-        <v>1.370506133847352</v>
+        <v>1.209530635601389</v>
       </c>
       <c r="D2" t="n">
-        <v>3.993119767667209</v>
+        <v>2.562311816749791</v>
       </c>
       <c r="E2" t="n">
-        <v>0.715624654538052</v>
+        <v>0.8176462137331223</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7299784090597767</v>
+        <v>0.832154863277343</v>
       </c>
       <c r="C3" t="n">
-        <v>1.262412363541313</v>
+        <v>0.9953054322395705</v>
       </c>
       <c r="D3" t="n">
-        <v>3.83029484200006</v>
+        <v>2.380907242287564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7299784090597766</v>
+        <v>0.8321548632773429</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7103058407756637</v>
+        <v>0.794135342317013</v>
       </c>
       <c r="C4" t="n">
-        <v>1.406077237099864</v>
+        <v>1.185305242371552</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.921686285293845</v>
+        <v>-2.105744922678504</v>
       </c>
       <c r="E4" t="n">
-        <v>1.202050957704772</v>
+        <v>1.156254807659492</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3093860086289282</v>
+        <v>0.3100022253933512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2575870411579827</v>
+        <v>0.2574720964288131</v>
       </c>
       <c r="D5" t="n">
-        <v>2.023366089307833</v>
+        <v>1.668635988660356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3867844366672862</v>
+        <v>0.493326367757356</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4541968716346028</v>
+        <v>0.5816833380721451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2289941218944887</v>
+        <v>0.2004743923683582</v>
       </c>
       <c r="D6" t="n">
-        <v>1.79838700033877</v>
+        <v>1.378327106862101</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4541968716346027</v>
+        <v>0.5816833380721451</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4933229189138774</v>
+        <v>0.6252132472191753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.183859228139149</v>
+        <v>0.158129143478363</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.07175125934556048</v>
+        <v>-0.1552450733163444</v>
       </c>
       <c r="E7" t="n">
-        <v>1.015204236024103</v>
+        <v>1.045054950902926</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5504706754762587</v>
+        <v>0.576596034285878</v>
       </c>
       <c r="C8" t="n">
-        <v>2.043642436478402</v>
+        <v>1.983368261103823</v>
       </c>
       <c r="D8" t="n">
-        <v>6.192775709098145</v>
+        <v>4.706106786563983</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5987895234574452</v>
+        <v>0.6944421533041667</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -640,16 +640,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6215155284983367</v>
+        <v>0.7314954403858795</v>
       </c>
       <c r="C9" t="n">
-        <v>1.875210091001976</v>
+        <v>1.579434902902229</v>
       </c>
       <c r="D9" t="n">
-        <v>5.892665011989668</v>
+        <v>4.180376060661895</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6215155284983368</v>
+        <v>0.7314954403858794</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7683697882714482</v>
+        <v>0.8123180876553269</v>
       </c>
       <c r="C10" t="n">
-        <v>1.236836015705166</v>
+        <v>1.113334663506391</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5818245111219689</v>
+        <v>0.5612016988353901</v>
       </c>
       <c r="E10" t="n">
-        <v>1.018555873530577</v>
+        <v>0.9505610231286147</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4578358603177525</v>
+        <v>0.4135268315668975</v>
       </c>
       <c r="C11" t="n">
-        <v>69.2167380987072</v>
+        <v>71.989607941966</v>
       </c>
       <c r="D11" t="n">
-        <v>234.7839405194313</v>
+        <v>227.2050239264631</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5337167319892512</v>
+        <v>0.5486292772801616</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5700895879906769</v>
+        <v>0.6005781721361692</v>
       </c>
       <c r="C12" t="n">
-        <v>61.6360382904998</v>
+        <v>59.41028448202841</v>
       </c>
       <c r="D12" t="n">
-        <v>216.0508437445067</v>
+        <v>200.7288507310737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5700895879906769</v>
+        <v>0.600578172136169</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4745776840547534</v>
+        <v>0.4822616086816869</v>
       </c>
       <c r="C13" t="n">
-        <v>71.28010920900385</v>
+        <v>70.75697932133481</v>
       </c>
       <c r="D13" t="n">
-        <v>48.33897893961279</v>
+        <v>45.46083901853342</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9165759578248809</v>
+        <v>0.9229573894206907</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4109645811348549</v>
+        <v>0.3887443377508524</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3609542825134568</v>
+        <v>0.3676994171844154</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5399151682900749</v>
+        <v>0.573514816320311</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4863038140601963</v>
+        <v>0.4531711773394871</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5447399721490346</v>
+        <v>0.5123697993192609</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3173300895147705</v>
+        <v>0.3284178786407705</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4732987308973574</v>
+        <v>0.5069515024608549</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5447399721490346</v>
+        <v>0.5123697993192607</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -808,378 +808,18 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4137311634794414</v>
+        <v>0.4130967119869603</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5040931628857537</v>
+        <v>0.5043658502260748</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1576251782218201</v>
+        <v>-0.210075686595415</v>
       </c>
       <c r="E16" t="n">
-        <v>1.249361936849259</v>
+        <v>1.310796999321188</v>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Referência</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7891974166282232</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.115423930586955</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.986633391086185</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.8569371399664381</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>SST</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9136897245069823</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.713728838121498</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.224323587907825</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9136897245069815</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>SST</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Validação</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.8149988314431731</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.12363832529422</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.5749778202912754</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.054379320605996</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>SST</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Referência</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.3100022253933512</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2574720964288131</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.668635988660356</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.493326367757356</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5816833380721451</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2004743923683582</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.378327106862101</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5816833380721451</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Validação</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6252132472191753</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.158129143478363</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.1552450733163444</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.045054950902926</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Referência</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5752512004429355</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.986515593597806</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.16750931340648</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.7310507425508644</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>UBS (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.8404449556805534</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.217534196360695</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.484129463534786</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.8404449556805509</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>UBS (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Validação</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.8731168058675298</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.9154119393929393</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.228793322592379</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9144690607999461</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>UBS (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Referência</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.4135268315668975</v>
-      </c>
-      <c r="C26" t="n">
-        <v>71.989607941966</v>
-      </c>
-      <c r="D26" t="n">
-        <v>227.2050239264631</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5486292772801616</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>FIRMEZA (N)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.6005781721361692</v>
-      </c>
-      <c r="C27" t="n">
-        <v>59.41028448202841</v>
-      </c>
-      <c r="D27" t="n">
-        <v>200.7288507310737</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.600578172136169</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>FIRMEZA (N)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Validação</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.4822616086816869</v>
-      </c>
-      <c r="C28" t="n">
-        <v>70.75697932133481</v>
-      </c>
-      <c r="D28" t="n">
-        <v>45.46083901853342</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9229573894206907</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>FIRMEZA (N)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Referência</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.3438815790654874</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.380954062652225</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.4246601563780921</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5961913511791866</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>CV</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.8246731643186473</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1969271933396974</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1822737858448643</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.8246731643186469</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Validação</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.495390633614868</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.4676705860490988</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1437769999042409</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.9246221272848584</v>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>AT</t>
         </is>

--- a/Partial Least Squares Regression/PLSR_metrics_SNV.xlsx
+++ b/Partial Least Squares Regression/PLSR_metrics_SNV.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7521266940440442</v>
+        <v>0.7521266940440444</v>
       </c>
       <c r="C2" t="n">
-        <v>1.209530635601389</v>
+        <v>1.209530635601388</v>
       </c>
       <c r="D2" t="n">
-        <v>2.562311816749791</v>
+        <v>2.562311816749782</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8176462137331223</v>
+        <v>0.8176462137331231</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,13 +496,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.832154863277343</v>
+        <v>0.8321548632773428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953054322395705</v>
+        <v>0.9953054322395707</v>
       </c>
       <c r="D3" t="n">
-        <v>2.380907242287564</v>
+        <v>2.380907242287568</v>
       </c>
       <c r="E3" t="n">
         <v>0.8321548632773429</v>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.794135342317013</v>
+        <v>0.6935836531676705</v>
       </c>
       <c r="C4" t="n">
-        <v>1.185305242371552</v>
+        <v>1.446089834638246</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.105744922678504</v>
+        <v>2.004859373446257</v>
       </c>
       <c r="E4" t="n">
-        <v>1.156254807659492</v>
+        <v>0.8127146885998382</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3100022253933512</v>
+        <v>0.3100022253933511</v>
       </c>
       <c r="C5" t="n">
         <v>0.2574720964288131</v>
@@ -553,7 +553,7 @@
         <v>1.668635988660356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.493326367757356</v>
+        <v>0.4933263677573559</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         <v>0.2004743923683582</v>
       </c>
       <c r="D6" t="n">
-        <v>1.378327106862101</v>
+        <v>1.378327106862104</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5816833380721451</v>
+        <v>0.5816833380721442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6252132472191753</v>
+        <v>0.4291847764763447</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158129143478363</v>
+        <v>0.1951495598821029</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1552450733163444</v>
+        <v>0.5655129046837359</v>
       </c>
       <c r="E7" t="n">
-        <v>1.045054950902926</v>
+        <v>0.8199105612194865</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.576596034285878</v>
+        <v>0.5765960342858791</v>
       </c>
       <c r="C8" t="n">
-        <v>1.983368261103823</v>
+        <v>1.98336826110382</v>
       </c>
       <c r="D8" t="n">
-        <v>4.706106786563983</v>
+        <v>4.70610678656399</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6944421533041667</v>
+        <v>0.6944421533041657</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -640,16 +640,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7314954403858795</v>
+        <v>0.7314954403858797</v>
       </c>
       <c r="C9" t="n">
         <v>1.579434902902229</v>
       </c>
       <c r="D9" t="n">
-        <v>4.180376060661895</v>
+        <v>4.180376060661897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7314954403858794</v>
+        <v>0.7314954403858797</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8123180876553269</v>
+        <v>0.5171223429000441</v>
       </c>
       <c r="C10" t="n">
-        <v>1.113334663506391</v>
+        <v>1.785801060198129</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5612016988353901</v>
+        <v>3.958561777245468</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9505610231286147</v>
+        <v>0.6876838955551791</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -694,10 +694,10 @@
         <v>71.989607941966</v>
       </c>
       <c r="D11" t="n">
-        <v>227.2050239264631</v>
+        <v>227.2050239264632</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5486292772801616</v>
+        <v>0.5486292772801611</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         <v>59.41028448202841</v>
       </c>
       <c r="D12" t="n">
-        <v>200.7288507310737</v>
+        <v>200.7288507310735</v>
       </c>
       <c r="E12" t="n">
-        <v>0.600578172136169</v>
+        <v>0.6005781721361693</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4822616086816869</v>
+        <v>0.3286039516524467</v>
       </c>
       <c r="C13" t="n">
-        <v>70.75697932133481</v>
+        <v>80.57558914372228</v>
       </c>
       <c r="D13" t="n">
-        <v>45.46083901853342</v>
+        <v>177.6351139904597</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9229573894206907</v>
+        <v>0.6944014653713412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         <v>0.3676994171844154</v>
       </c>
       <c r="D14" t="n">
-        <v>0.573514816320311</v>
+        <v>0.5735148163203111</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4531711773394871</v>
+        <v>0.453171177339487</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5123697993192609</v>
+        <v>0.5123697993192611</v>
       </c>
       <c r="C15" t="n">
         <v>0.3284178786407705</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5069515024608549</v>
+        <v>0.506951502460855</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5123697993192607</v>
+        <v>0.5123697993192606</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4130967119869603</v>
+        <v>0.3388455929761235</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5043658502260748</v>
+        <v>0.5353204702837886</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.210075686595415</v>
+        <v>0.03516888098594206</v>
       </c>
       <c r="E16" t="n">
-        <v>1.310796999321188</v>
+        <v>1.208968339218948</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>

--- a/Partial Least Squares Regression/PLSR_metrics_SNV.xlsx
+++ b/Partial Least Squares Regression/PLSR_metrics_SNV.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7521266940440444</v>
+        <v>0.7370223068683091</v>
       </c>
       <c r="C2" t="n">
-        <v>1.209530635601388</v>
+        <v>1.188068849419982</v>
       </c>
       <c r="D2" t="n">
-        <v>2.562311816749782</v>
+        <v>2.714199168241705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8176462137331231</v>
+        <v>0.8111348281760957</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8321548632773428</v>
+        <v>0.8607949589663184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953054322395707</v>
+        <v>0.864389802435918</v>
       </c>
       <c r="D3" t="n">
-        <v>2.380907242287568</v>
+        <v>1.996799398726186</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8321548632773429</v>
+        <v>0.8607949589663174</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6935836531676705</v>
+        <v>0.6601393890535294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.446089834638246</v>
+        <v>1.462454060164867</v>
       </c>
       <c r="D4" t="n">
-        <v>2.004859373446257</v>
+        <v>2.63236425109806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8127146885998382</v>
+        <v>0.7731866468595344</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3100022253933511</v>
+        <v>0.4612434475744204</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2574720964288131</v>
+        <v>0.1994769999197729</v>
       </c>
       <c r="D5" t="n">
-        <v>1.668635988660356</v>
+        <v>1.376515154416094</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4933263677573559</v>
+        <v>0.5784094272521679</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5816833380721451</v>
+        <v>0.6688329334130101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2004743923683582</v>
+        <v>0.1563940102460468</v>
       </c>
       <c r="D6" t="n">
-        <v>1.378327106862104</v>
+        <v>1.082339909364065</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5816833380721442</v>
+        <v>0.668832933413011</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4291847764763447</v>
+        <v>0.4196230989426575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1951495598821029</v>
+        <v>0.2073420335119064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5655129046837359</v>
+        <v>0.2235480341375986</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8199105612194865</v>
+        <v>0.9361947342634591</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5765960342858791</v>
+        <v>0.7796525998653864</v>
       </c>
       <c r="C8" t="n">
-        <v>1.98336826110382</v>
+        <v>1.135409295559812</v>
       </c>
       <c r="D8" t="n">
-        <v>4.70610678656399</v>
+        <v>2.385663040038605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6944421533041657</v>
+        <v>0.8467384530883489</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -640,16 +640,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7314954403858797</v>
+        <v>0.8915670835159181</v>
       </c>
       <c r="C9" t="n">
-        <v>1.579434902902229</v>
+        <v>0.7964876562852736</v>
       </c>
       <c r="D9" t="n">
-        <v>4.180376060661897</v>
+        <v>1.690080430772176</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7314954403858797</v>
+        <v>0.8915670835159192</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5171223429000441</v>
+        <v>0.6781174871926356</v>
       </c>
       <c r="C10" t="n">
-        <v>1.785801060198129</v>
+        <v>1.438287334757114</v>
       </c>
       <c r="D10" t="n">
-        <v>3.958561777245468</v>
+        <v>3.024414111855474</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6876838955551791</v>
+        <v>0.763367306770893</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4135268315668975</v>
+        <v>0.4500309083207849</v>
       </c>
       <c r="C11" t="n">
-        <v>71.989607941966</v>
+        <v>63.07565551732598</v>
       </c>
       <c r="D11" t="n">
-        <v>227.2050239264632</v>
+        <v>263.2360515145705</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5486292772801611</v>
+        <v>0.467245745708752</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6005781721361692</v>
+        <v>0.5237600680583329</v>
       </c>
       <c r="C12" t="n">
-        <v>59.41028448202841</v>
+        <v>58.69559845291649</v>
       </c>
       <c r="D12" t="n">
-        <v>200.7288507310735</v>
+        <v>237.0901121888938</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6005781721361693</v>
+        <v>0.5237600680583331</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3286039516524467</v>
+        <v>0.4576972715003151</v>
       </c>
       <c r="C13" t="n">
-        <v>80.57558914372228</v>
+        <v>71.71250453969046</v>
       </c>
       <c r="D13" t="n">
-        <v>177.6351139904597</v>
+        <v>100.4761313547069</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6944014653713412</v>
+        <v>0.8247140807390658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3887443377508524</v>
+        <v>0.4185937149073369</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3676994171844154</v>
+        <v>0.311692908186107</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5735148163203111</v>
+        <v>0.515169182769874</v>
       </c>
       <c r="E14" t="n">
-        <v>0.453171177339487</v>
+        <v>0.4918789400076286</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5123697993192611</v>
+        <v>0.5368523320944942</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3284178786407705</v>
+        <v>0.2781933861530835</v>
       </c>
       <c r="D15" t="n">
-        <v>0.506951502460855</v>
+        <v>0.4635404640289196</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5123697993192606</v>
+        <v>0.5368523320944943</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3388455929761235</v>
+        <v>0.5207078026973092</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5353204702837886</v>
+        <v>0.3464049311480971</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03516888098594206</v>
+        <v>-0.02997175598647051</v>
       </c>
       <c r="E16" t="n">
-        <v>1.208968339218948</v>
+        <v>1.219792321038724</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
